--- a/201-8 (W25)/grades/Windemuller, Natalie.xlsx
+++ b/201-8 (W25)/grades/Windemuller, Natalie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlatza\Documents\winter2025\201-8 (W25)\grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E730F2-5EB6-471C-B1AA-B5AA4AED7B68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC44202-3250-4FE4-BA75-2A818C14B9BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="6770" xr2:uid="{0BE3FE40-C809-49A8-B271-A8365C8F95B6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>PH201-8 quiz 1</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Student:</t>
   </si>
   <si>
-    <t>Standerford, Tessa</t>
-  </si>
-  <si>
     <t>criteria</t>
   </si>
   <si>
@@ -105,61 +102,14 @@
     <t>total</t>
   </si>
   <si>
-    <t>all thre values should have been squared, 0.5 points off for each one</t>
-  </si>
-  <si>
-    <t>points should have been from the trend-line, not the data set, also should have been from the "distance squared" column as those were used in the liniarized data</t>
-  </si>
-  <si>
-    <r>
-      <t>should have been acceleration (m*s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>), not velocity(m*s), and did not show work</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>should have been m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">s </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>not m, and did not show work .</t>
-    </r>
+    <t>q-value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,12 +130,6 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -209,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -444,19 +388,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -505,36 +436,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -553,73 +454,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -647,11 +481,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -668,11 +539,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -685,130 +556,155 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,50 +1020,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF718F5-8568-439D-9E9A-F57DF6B04944}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="53" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="5">
         <v>1</v>
       </c>
@@ -1175,27 +1074,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="54"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="62"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="56"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="64"/>
       <c r="E5" s="9">
         <v>1</v>
       </c>
@@ -1203,267 +1102,286 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="58"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="66"/>
       <c r="E6" s="7">
         <v>3</v>
       </c>
       <c r="F6" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12">
         <v>3</v>
       </c>
       <c r="F7" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="G7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="38" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="15">
         <v>1</v>
       </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="16"/>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="39"/>
+      <c r="B9" s="73" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="17">
         <v>2</v>
       </c>
-      <c r="F9" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="39"/>
+      <c r="F9" s="10"/>
+      <c r="H9" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="39"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="68"/>
       <c r="E10" s="18">
         <v>4</v>
       </c>
-      <c r="F10" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="26"/>
+      <c r="F10" s="19"/>
+      <c r="H10" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="39"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="37"/>
       <c r="E11" s="17">
         <v>4</v>
       </c>
-      <c r="F11" s="10">
-        <v>2</v>
-      </c>
-      <c r="G11" s="20" t="s">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="39"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="67" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="18">
         <v>1</v>
       </c>
-      <c r="F12" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
-      <c r="B13" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="26"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="39"/>
+      <c r="B13" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="37"/>
       <c r="E13" s="17">
         <v>2</v>
       </c>
-      <c r="F13" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="39"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="39"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="68"/>
       <c r="E14" s="18">
         <v>2</v>
       </c>
-      <c r="F14" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="26"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="39"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="37"/>
       <c r="E15" s="17">
         <v>4</v>
       </c>
-      <c r="F15" s="10">
-        <v>2</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="34"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="28"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="39"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="70"/>
       <c r="E16" s="21">
         <v>1</v>
       </c>
-      <c r="F16" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="23">
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="39"/>
+      <c r="B17" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="27">
         <f>SUM(E3:E16)</f>
         <v>30</v>
       </c>
-      <c r="F17" s="24">
-        <f>SUM(F3:F16)</f>
-        <v>22.5</v>
+      <c r="F17" s="28">
+        <f>SUM(F3:F16,F18:F21)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="29">
+        <v>2</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="9">
+        <v>4</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="29">
+        <v>4</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="40"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="C14:D14"/>
+  <mergeCells count="29">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:B7"/>
@@ -1471,18 +1389,28 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A8:A16"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
